--- a/Database-design.xlsx
+++ b/Database-design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilu2\my-data-class\ETL-Project\ETL-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57A4D7BD-17C4-486D-ABA8-9E2729F953CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A3B873-A4B9-4EE0-B887-B6A8B45843DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615F18BA-F394-4BB4-B091-830047A75852}"/>
   </bookViews>
@@ -33,93 +33,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>National Parks</t>
   </si>
   <si>
-    <t>Park ID</t>
-  </si>
-  <si>
-    <t>Park Name</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Visitors</t>
-  </si>
-  <si>
-    <t>Acres</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Trails</t>
   </si>
   <si>
-    <t>Trail ID</t>
-  </si>
-  <si>
-    <t>Trail Name</t>
-  </si>
-  <si>
-    <t>Trailhead Lat</t>
-  </si>
-  <si>
-    <t>Trailhead Long</t>
-  </si>
-  <si>
     <t>Trail Stats</t>
   </si>
   <si>
-    <t>Popularity</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Diffiulty</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Animal Type</t>
-  </si>
-  <si>
-    <t>Animal Name</t>
-  </si>
-  <si>
-    <t>Abundance</t>
-  </si>
-  <si>
-    <t>Conservation Status</t>
-  </si>
-  <si>
-    <t>Elevation</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
     <t>FK</t>
   </si>
   <si>
-    <t>Juntion Sepcies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juntion Trails </t>
-  </si>
-  <si>
     <t>Species Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junction Trails </t>
+  </si>
+  <si>
+    <t>Junction Species</t>
+  </si>
+  <si>
+    <t>varchar(366)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>national_park</t>
+  </si>
+  <si>
+    <t>animal_name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
+    <t>conservation_status</t>
+  </si>
+  <si>
+    <t>popularity</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>diffiulty</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>trail_id</t>
+  </si>
+  <si>
+    <t>park_id</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>num_reviews</t>
+  </si>
+  <si>
+    <t>route_type</t>
+  </si>
+  <si>
+    <t>trailhead_lat</t>
+  </si>
+  <si>
+    <t>trailhead_long</t>
+  </si>
+  <si>
+    <t>trail_name</t>
+  </si>
+  <si>
+    <t>visitors</t>
+  </si>
+  <si>
+    <t>acres</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
@@ -320,22 +332,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -345,6 +352,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152B74A-02D3-475C-9B35-B52677CF6373}">
-  <dimension ref="B1:O10"/>
+  <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,205 +685,209 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f>B5</f>
-        <v>State</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="20"/>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>B5</f>
-        <v>State</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Database-design.xlsx
+++ b/Database-design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilu2\my-data-class\ETL-Project\ETL-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A3B873-A4B9-4EE0-B887-B6A8B45843DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224930C9-DAD1-4453-8B34-D6C7765E49B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615F18BA-F394-4BB4-B091-830047A75852}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{615F18BA-F394-4BB4-B091-830047A75852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,38 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
-  <si>
-    <t>National Parks</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Trails</t>
   </si>
   <si>
-    <t>Trail Stats</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
-    <t>Species Stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junction Trails </t>
-  </si>
-  <si>
-    <t>Junction Species</t>
-  </si>
-  <si>
-    <t>varchar(366)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>national_park</t>
   </si>
   <si>
@@ -132,6 +108,27 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>National_Parks</t>
+  </si>
+  <si>
+    <t>Trail_Stats</t>
+  </si>
+  <si>
+    <t>Species_Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parks_Trails </t>
+  </si>
+  <si>
+    <t>Parks_Species</t>
+  </si>
+  <si>
+    <t>VARCHAR(366),</t>
+  </si>
+  <si>
+    <t>int,</t>
   </si>
 </sst>
 </file>
@@ -201,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -328,11 +325,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -342,6 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -352,9 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,17 +694,19 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
@@ -695,200 +714,256 @@
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="K4" s="15"/>
       <c r="L4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>4</v>
+      <c r="O4" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="K5" s="15"/>
       <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database-design.xlsx
+++ b/Database-design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilu2\my-data-class\ETL-Project\ETL-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224930C9-DAD1-4453-8B34-D6C7765E49B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE44F57-FD97-4C0B-8F87-E3D015129DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{615F18BA-F394-4BB4-B091-830047A75852}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Trails</t>
   </si>
@@ -104,12 +104,6 @@
     <t>acres</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>National_Parks</t>
   </si>
   <si>
@@ -128,7 +122,19 @@
     <t>VARCHAR(366),</t>
   </si>
   <si>
-    <t>int,</t>
+    <t>park_code</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>INT,</t>
+  </si>
+  <si>
+    <t>NUMERIC,</t>
   </si>
 </sst>
 </file>
@@ -347,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -355,9 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -372,6 +376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +702,7 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,96 +721,96 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="I2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>2</v>
+      <c r="B3" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -811,159 +819,159 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>4</v>
+      <c r="G5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="K5" s="13"/>
       <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>31</v>
+      <c r="E7" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>31</v>
+      <c r="G7" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>31</v>
+      <c r="E8" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11"/>
+      <c r="G8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="G9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="G10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="G12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database-design.xlsx
+++ b/Database-design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilu2\my-data-class\ETL-Project\ETL-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE44F57-FD97-4C0B-8F87-E3D015129DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE2990-3E0A-4B21-A5FF-F5B0F0443188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{615F18BA-F394-4BB4-B091-830047A75852}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615F18BA-F394-4BB4-B091-830047A75852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Trails</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>national_park</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>diffiulty</t>
   </si>
   <si>
-    <t>usage</t>
-  </si>
-  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>trail_id</t>
   </si>
   <si>
-    <t>park_id</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parks_Trails </t>
-  </si>
-  <si>
-    <t>Parks_Species</t>
   </si>
   <si>
     <t>VARCHAR(366),</t>
@@ -353,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -373,13 +361,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6152B74A-02D3-475C-9B35-B52677CF6373}">
-  <dimension ref="B1:O12"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,262 +706,253 @@
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" s="9"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>29</v>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>32</v>
+      <c r="G10" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>32</v>
-      </c>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
